--- a/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ARTID</t>
   </si>
@@ -71,33 +71,15 @@
     <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
   </si>
   <si>
+    <t>998345385</t>
+  </si>
+  <si>
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
-    <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
-  </si>
-  <si>
-    <t>998345385</t>
-  </si>
-  <si>
     <t>12Μ0ΤΔΑ 10768</t>
   </si>
   <si>
-    <t>8Μ0ΤΔΑ 8962</t>
-  </si>
-  <si>
-    <t>TΔA 60038</t>
-  </si>
-  <si>
-    <t>TΔA 56096</t>
-  </si>
-  <si>
-    <t>8Μ0ΤΔΑ 9036</t>
-  </si>
-  <si>
-    <t>ΑΛΠ 36671</t>
-  </si>
-  <si>
     <t>ΑΛΠ 130739</t>
   </si>
   <si>
@@ -107,16 +89,13 @@
     <t>64-9987</t>
   </si>
   <si>
-    <t>24-1087</t>
+    <t>64-0000</t>
   </si>
   <si>
     <t>20-0087</t>
   </si>
   <si>
     <t>64-0025</t>
-  </si>
-  <si>
-    <t>64-0000</t>
   </si>
   <si>
     <t>50-0000</t>
@@ -505,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,13 +579,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -624,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -644,43 +623,43 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20254</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2">
-        <v>45934</v>
+        <v>45961</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="M3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="N3" s="3">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,37 +679,37 @@
         <v>14460</v>
       </c>
       <c r="F4" s="2">
-        <v>45934</v>
+        <v>45972</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
-        <v>18.3</v>
+        <v>104.99</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>18.3</v>
+        <v>97.83</v>
       </c>
       <c r="M4" s="3">
-        <v>18.3</v>
+        <v>97.83</v>
       </c>
       <c r="N4" s="3">
-        <v>4.39</v>
+        <v>23.48</v>
       </c>
       <c r="O4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -738,7 +717,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -753,357 +732,39 @@
         <v>14460</v>
       </c>
       <c r="F5" s="2">
-        <v>45757</v>
+        <v>45972</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
-        <v>129.99</v>
+        <v>104.99</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>121.47</v>
+        <v>7.16</v>
       </c>
       <c r="M5" s="3">
-        <v>121.47</v>
+        <v>7.16</v>
       </c>
       <c r="N5" s="3">
-        <v>29.15</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45757</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="M6" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20254</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45937</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="M7" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="N7" s="3">
-        <v>15.48</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>170</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45940</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>8</v>
-      </c>
-      <c r="M8" s="3">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>170</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45961</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45972</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>104.99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>97.83</v>
-      </c>
-      <c r="M10" s="3">
-        <v>97.83</v>
-      </c>
-      <c r="N10" s="3">
-        <v>23.48</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45972</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3">
-        <v>104.99</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7.16</v>
-      </c>
-      <c r="M11" s="3">
-        <v>7.16</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1127,13 +788,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1141,10 +802,10 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1152,10 +813,10 @@
         <v>14460</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1163,7 +824,7 @@
         <v>20254</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>

--- a/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ARTID</t>
   </si>
@@ -71,27 +71,18 @@
     <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
   </si>
   <si>
-    <t>998345385</t>
-  </si>
-  <si>
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
     <t>12Μ0ΤΔΑ 10768</t>
   </si>
   <si>
-    <t>ΑΛΠ 130739</t>
-  </si>
-  <si>
     <t>TΔA 60984</t>
   </si>
   <si>
     <t>64-9987</t>
   </si>
   <si>
-    <t>64-0000</t>
-  </si>
-  <si>
     <t>20-0087</t>
   </si>
   <si>
@@ -110,16 +101,10 @@
     <t>ΕΠΩΝΥΜΙΑ</t>
   </si>
   <si>
-    <t>000000000</t>
-  </si>
-  <si>
     <t>800916954</t>
   </si>
   <si>
     <t>094439854</t>
-  </si>
-  <si>
-    <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
   </si>
 </sst>
 </file>
@@ -484,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +564,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -603,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -623,48 +608,48 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>170</v>
+        <v>14460</v>
       </c>
       <c r="F3" s="2">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3">
-        <v>2.6</v>
+        <v>104.99</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="M3" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="N3" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -682,89 +667,36 @@
         <v>45972</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
         <v>104.99</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>97.83</v>
+        <v>7.16</v>
       </c>
       <c r="M4" s="3">
-        <v>97.83</v>
+        <v>7.16</v>
       </c>
       <c r="N4" s="3">
-        <v>23.48</v>
+        <v>0.43</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45972</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3">
-        <v>104.99</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>7.16</v>
-      </c>
-      <c r="M5" s="3">
-        <v>7.16</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -788,45 +720,34 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>170</v>
+        <v>14460</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>14460</v>
+        <v>20254</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>20254</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/data/tony/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ARTID</t>
   </si>
@@ -74,12 +74,18 @@
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
+    <t>094386010</t>
+  </si>
+  <si>
     <t>12Μ0ΤΔΑ 10768</t>
   </si>
   <si>
     <t>TΔA 60984</t>
   </si>
   <si>
+    <t>ΑΛΠ 165</t>
+  </si>
+  <si>
     <t>64-9987</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>64-0025</t>
   </si>
   <si>
+    <t>64-0000</t>
+  </si>
+  <si>
     <t>50-0000</t>
   </si>
   <si>
@@ -101,10 +110,16 @@
     <t>ΕΠΩΝΥΜΙΑ</t>
   </si>
   <si>
+    <t>000000000</t>
+  </si>
+  <si>
     <t>800916954</t>
   </si>
   <si>
     <t>094439854</t>
+  </si>
+  <si>
+    <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
   </si>
 </sst>
 </file>
@@ -469,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,13 +579,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -588,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -617,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
         <v>104.99</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -641,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -670,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
         <v>104.99</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -694,10 +709,63 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,34 +788,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>14460</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
+        <v>14460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>20254</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
